--- a/column_concrete.xlsx
+++ b/column_concrete.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,18 +639,96 @@
         </is>
       </c>
     </row>
-    <row r="19"/>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
